--- a/用例数据/股转/股份调账/测试结果.xlsx
+++ b/用例数据/股转/股份调账/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="293">
   <si>
     <t>EXCHID</t>
   </si>
@@ -765,27 +765,15 @@
     <t>BUSINESSCODE</t>
   </si>
   <si>
-    <t>30050103</t>
-  </si>
-  <si>
     <t>005_003_027</t>
   </si>
   <si>
-    <t>20211225183705</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>20211225000000</t>
-  </si>
-  <si>
-    <t>50000000.000</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -810,9 +798,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>000006864188</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -828,43 +813,10 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30050105</t>
-  </si>
-  <si>
-    <t>000006864190</t>
-  </si>
-  <si>
-    <t>30050106</t>
-  </si>
-  <si>
-    <t>000006864191</t>
-  </si>
-  <si>
-    <t>30050098</t>
-  </si>
-  <si>
     <t>005_004_027</t>
   </si>
   <si>
     <t>11.59000000</t>
-  </si>
-  <si>
-    <t>1002952.480</t>
-  </si>
-  <si>
-    <t>000006864183</t>
-  </si>
-  <si>
-    <t>30050099</t>
-  </si>
-  <si>
-    <t>000006864184</t>
-  </si>
-  <si>
-    <t>30050101</t>
-  </si>
-  <si>
-    <t>000006864186</t>
   </si>
   <si>
     <t>GZ11721400</t>
@@ -895,20 +847,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005_003_027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_004_027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SHAREATTR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CURRENTQTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30052766</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999286662.010</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006907710</t>
+  </si>
+  <si>
+    <t>30052767</t>
+  </si>
+  <si>
+    <t>000006907711</t>
+  </si>
+  <si>
+    <t>30052768</t>
+  </si>
+  <si>
+    <t>000006907712</t>
+  </si>
+  <si>
+    <t>30052769</t>
+  </si>
+  <si>
+    <t>1000000000.000</t>
+  </si>
+  <si>
+    <t>000006907713</t>
+  </si>
+  <si>
+    <t>30052770</t>
+  </si>
+  <si>
+    <t>000006907714</t>
+  </si>
+  <si>
+    <t>30052771</t>
+  </si>
+  <si>
+    <t>000006907715</t>
   </si>
 </sst>
 </file>
@@ -1264,88 +1259,88 @@
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1616,7 +1611,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>90</v>
@@ -1625,7 +1620,7 @@
         <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>92</v>
@@ -1679,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>102</v>
@@ -1865,7 +1860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1876,7 +1871,7 @@
         <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>109</v>
@@ -2122,12 +2117,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2139,26 +2134,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,16 +2173,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>119</v>
@@ -2202,7 +2197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -2246,12 +2241,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>88</v>
@@ -2290,7 +2285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -2298,7 +2293,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>108</v>
@@ -2334,19 +2329,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2355,145 +2350,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH18"/>
+  <dimension ref="A1:EI18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -2909,42 +2904,42 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>100</v>
@@ -2956,94 +2951,94 @@
         <v>100</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>102</v>
@@ -3052,7 +3047,7 @@
         <v>97</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>93</v>
@@ -3064,13 +3059,13 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>97</v>
@@ -3082,10 +3077,10 @@
         <v>93</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>93</v>
@@ -3097,10 +3092,10 @@
         <v>97</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -3112,7 +3107,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>97</v>
@@ -3130,28 +3125,28 @@
         <v>93</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>97</v>
@@ -3160,16 +3155,16 @@
         <v>97</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>97</v>
@@ -3181,7 +3176,7 @@
         <v>97</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>97</v>
@@ -3225,43 +3220,46 @@
       <c r="EG2" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>100</v>
@@ -3273,94 +3271,94 @@
         <v>100</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>102</v>
@@ -3369,7 +3367,7 @@
         <v>97</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>93</v>
@@ -3381,13 +3379,13 @@
         <v>86</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>97</v>
@@ -3399,10 +3397,10 @@
         <v>93</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>93</v>
@@ -3414,10 +3412,10 @@
         <v>97</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>86</v>
@@ -3429,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>97</v>
@@ -3447,28 +3445,28 @@
         <v>93</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>97</v>
@@ -3477,16 +3475,16 @@
         <v>97</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>97</v>
@@ -3498,7 +3496,7 @@
         <v>97</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>97</v>
@@ -3542,43 +3540,46 @@
       <c r="EG3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>100</v>
@@ -3590,94 +3591,94 @@
         <v>100</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>102</v>
@@ -3686,7 +3687,7 @@
         <v>97</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>93</v>
@@ -3698,13 +3699,13 @@
         <v>86</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>97</v>
@@ -3716,10 +3717,10 @@
         <v>93</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>93</v>
@@ -3731,10 +3732,10 @@
         <v>97</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>86</v>
@@ -3746,7 +3747,7 @@
         <v>86</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>97</v>
@@ -3764,28 +3765,28 @@
         <v>93</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>97</v>
@@ -3794,16 +3795,16 @@
         <v>97</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>97</v>
@@ -3815,7 +3816,7 @@
         <v>97</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO4" s="1" t="s">
         <v>97</v>
@@ -3859,43 +3860,46 @@
       <c r="EG4" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>100</v>
@@ -3907,94 +3911,94 @@
         <v>100</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>102</v>
@@ -4003,7 +4007,7 @@
         <v>97</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>93</v>
@@ -4015,13 +4019,13 @@
         <v>86</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>97</v>
@@ -4033,10 +4037,10 @@
         <v>93</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>93</v>
@@ -4048,10 +4052,10 @@
         <v>97</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>86</v>
@@ -4063,7 +4067,7 @@
         <v>86</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>97</v>
@@ -4081,28 +4085,28 @@
         <v>93</v>
       </c>
       <c r="CH5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CK5" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>97</v>
@@ -4111,16 +4115,16 @@
         <v>97</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>97</v>
@@ -4132,7 +4136,7 @@
         <v>97</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>97</v>
@@ -4176,43 +4180,46 @@
       <c r="EG5" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>100</v>
@@ -4224,94 +4231,94 @@
         <v>100</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>115</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>102</v>
@@ -4320,7 +4327,7 @@
         <v>97</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>93</v>
@@ -4332,13 +4339,13 @@
         <v>86</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ6" s="1" t="s">
         <v>97</v>
@@ -4350,10 +4357,10 @@
         <v>93</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>93</v>
@@ -4365,10 +4372,10 @@
         <v>97</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>86</v>
@@ -4380,7 +4387,7 @@
         <v>86</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>97</v>
@@ -4398,28 +4405,28 @@
         <v>93</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC6" s="1" t="s">
         <v>97</v>
@@ -4428,16 +4435,16 @@
         <v>97</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>97</v>
@@ -4449,7 +4456,7 @@
         <v>97</v>
       </c>
       <c r="DN6" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO6" s="1" t="s">
         <v>97</v>
@@ -4493,43 +4500,46 @@
       <c r="EG6" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI6" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>100</v>
@@ -4541,94 +4551,94 @@
         <v>100</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="X7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>102</v>
@@ -4637,7 +4647,7 @@
         <v>97</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>93</v>
@@ -4649,13 +4659,13 @@
         <v>86</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BJ7" s="1" t="s">
         <v>97</v>
@@ -4667,10 +4677,10 @@
         <v>93</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>93</v>
@@ -4682,10 +4692,10 @@
         <v>97</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>86</v>
@@ -4697,7 +4707,7 @@
         <v>86</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>97</v>
@@ -4715,28 +4725,28 @@
         <v>93</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="DC7" s="1" t="s">
         <v>97</v>
@@ -4745,16 +4755,16 @@
         <v>97</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>97</v>
@@ -4766,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="DN7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="DO7" s="1" t="s">
         <v>97</v>
@@ -4810,18 +4820,21 @@
       <c r="EG7" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI7" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
